--- a/data/meta_data/plate9_setup_final.xlsx
+++ b/data/meta_data/plate9_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FEA67D-B697-0841-8C48-70AEED965A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CF5ED-AB31-BB4A-AFF2-6FDEB1DB6154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16280" yWindow="7900" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate9_setup_final" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
   <si>
     <t>sample_ID</t>
   </si>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3610,6 +3610,9 @@
       <c r="F92">
         <v>5</v>
       </c>
+      <c r="G92" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -3630,6 +3633,9 @@
       <c r="F93">
         <v>5</v>
       </c>
+      <c r="G93" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -3649,6 +3655,9 @@
       </c>
       <c r="F94">
         <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
